--- a/Testcase Generate from Gitlab/input/Testcase-template-erp-web.xlsx
+++ b/Testcase Generate from Gitlab/input/Testcase-template-erp-web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Test PR - Status change</t>
-  </si>
-  <si>
-    <t>Today</t>
   </si>
   <si>
     <t>Pass</t>
@@ -326,14 +323,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -341,35 +351,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -378,9 +382,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
@@ -396,59 +397,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -467,111 +464,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -854,7 +746,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:K22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -865,50 +757,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1">
         <v>43</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -924,10 +816,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -952,30 +844,31 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="18" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="51">
+        <f ca="1">TODAY()</f>
+        <v>44999</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="13" t="str">
+      <c r="I6" s="50"/>
+      <c r="J6" s="45" t="str">
         <f>IF(COUNTIF(I18:I34,"Fail")&gt;0, "Fail", "Pass")</f>
         <v>Pass</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -994,86 +887,86 @@
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="7"/>
       <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="3"/>
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="3"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -1104,165 +997,130 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="32" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>A18+1</f>
         <v>2</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" s="52" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <f t="shared" ref="A20:A22" si="0">A19+1</f>
         <v>3</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1277,17 +1135,52 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:K6">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>J6="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>J6="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:K22">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I18="Fail"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Testcase Generate from Gitlab/input/Testcase-template-erp-web.xlsx
+++ b/Testcase Generate from Gitlab/input/Testcase-template-erp-web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>ERP DEV website</t>
+  </si>
+  <si>
+    <t>ERP user/ pass: superuser/ superuser</t>
+  </si>
+  <si>
+    <t>ERP user can login to ERP system</t>
+  </si>
+  <si>
+    <t>Login success to ERP</t>
   </si>
 </sst>
 </file>
@@ -746,7 +755,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B11" sqref="B11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -857,7 +866,7 @@
       <c r="E6" s="50"/>
       <c r="F6" s="51">
         <f ca="1">TODAY()</f>
-        <v>44999</v>
+        <v>45005</v>
       </c>
       <c r="G6" s="52"/>
       <c r="H6" s="46" t="s">
@@ -917,7 +926,9 @@
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -927,7 +938,9 @@
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
       <c r="E10" s="3"/>
@@ -942,7 +955,9 @@
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="31" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
       <c r="E11" s="3"/>
